--- a/time_serverJPDM2.xlsx
+++ b/time_serverJPDM2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UNICAL\MAGISTRALE AIDS\I ANNO\STATISTICA\2021-10-05 markdown and visualization\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>mem_type</t>
   </si>
@@ -65,7 +65,13 @@
     <t>unified Memory</t>
   </si>
   <si>
-    <t>speed_up</t>
+    <t>speed_up_init</t>
+  </si>
+  <si>
+    <t>speed_up_add</t>
+  </si>
+  <si>
+    <t>speed_up_tot</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,13 +120,23 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0000"/>
@@ -148,21 +164,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13"/>
   <sortState ref="A2:F13">
     <sortCondition ref="A1:A13"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="9">
     <tableColumn id="1" name="mem_type"/>
     <tableColumn id="2" name="kernel_type"/>
-    <tableColumn id="3" name="dim_grid" dataDxfId="4"/>
-    <tableColumn id="4" name="init_min_time" dataDxfId="3"/>
-    <tableColumn id="5" name="add_min_time" dataDxfId="2"/>
-    <tableColumn id="6" name="total_time" dataDxfId="1">
+    <tableColumn id="3" name="dim_grid" dataDxfId="6"/>
+    <tableColumn id="4" name="init_min_time" dataDxfId="5"/>
+    <tableColumn id="5" name="add_min_time" dataDxfId="4"/>
+    <tableColumn id="6" name="total_time" dataDxfId="3">
       <calculatedColumnFormula>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="speed_up" dataDxfId="0"/>
+    <tableColumn id="7" name="speed_up_init" dataDxfId="2">
+      <calculatedColumnFormula>1278/Tabella1[[#This Row],[init_min_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="speed_up_add" dataDxfId="1">
+      <calculatedColumnFormula>294/Tabella1[[#This Row],[add_min_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="speed_up_tot" dataDxfId="0">
+      <calculatedColumnFormula>1572/Tabella1[[#This Row],[total_time]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -431,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +470,7 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +492,14 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,9 +520,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>42.392799999999994</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>65.231372308823083</v>
+      </c>
+      <c r="H2" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>12.894171308275954</v>
+      </c>
+      <c r="I2" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>37.081768602215476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -513,9 +554,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>43.064399999999999</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>58.118911839340775</v>
+      </c>
+      <c r="H3" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>13.950177935943062</v>
+      </c>
+      <c r="I3" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>36.503469222838355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -536,9 +588,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>45.040500000000002</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>53.10065440947335</v>
+      </c>
+      <c r="H4" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>14.018023172650551</v>
+      </c>
+      <c r="I4" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>34.901921603889832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -559,9 +622,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>40.774699999999996</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>70.883042979084522</v>
+      </c>
+      <c r="H5" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>12.92591778412838</v>
+      </c>
+      <c r="I5" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>38.55331860197623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -582,9 +656,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>37.605400000000003</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>70.872429626671988</v>
+      </c>
+      <c r="H6" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>15.020691769274</v>
+      </c>
+      <c r="I6" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>41.802507086748179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -605,9 +690,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>37.1785</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>70.875967057649106</v>
+      </c>
+      <c r="H7" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>15.35488588290594</v>
+      </c>
+      <c r="I7" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>42.282501983673363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -628,9 +724,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>42.446600000000004</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>65.145583557621734</v>
+      </c>
+      <c r="H8" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>12.878356476411581</v>
+      </c>
+      <c r="I8" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>37.034768391343476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -651,9 +758,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>43.082099999999997</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>58.11177650156192</v>
+      </c>
+      <c r="H9" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>13.940256045519204</v>
+      </c>
+      <c r="I9" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>36.488472010417325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -674,9 +792,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>45.061399999999999</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>53.065597050250382</v>
+      </c>
+      <c r="H10" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>14.014682047859662</v>
+      </c>
+      <c r="I10" s="6">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>34.885733687812632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -697,9 +826,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>38.897800000000004</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>70.874787874754603</v>
+      </c>
+      <c r="H11" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>14.089907025783571</v>
+      </c>
+      <c r="I11" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>40.413596655851997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -720,9 +860,20 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>36.977400000000003</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>70.884222436686741</v>
+      </c>
+      <c r="H12" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>15.516149461684611</v>
+      </c>
+      <c r="I12" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>42.512453552710568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -743,7 +894,18 @@
         <f>Tabella1[[#This Row],[init_min_time]]+Tabella1[[#This Row],[add_min_time]]</f>
         <v>36.903000000000006</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="5">
+        <f>1278/Tabella1[[#This Row],[init_min_time]]</f>
+        <v>70.893659510733897</v>
+      </c>
+      <c r="H13" s="5">
+        <f>294/Tabella1[[#This Row],[add_min_time]]</f>
+        <v>15.575333757151938</v>
+      </c>
+      <c r="I13" s="5">
+        <f>1572/Tabella1[[#This Row],[total_time]]</f>
+        <v>42.598162750995847</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
